--- a/stage_1/Excel_basics.xlsx
+++ b/stage_1/Excel_basics.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E81E86-F393-4868-AAB6-FAFB5877EF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Abuja</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Port Harcourt</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>Ibadan</t>
+  </si>
+  <si>
+    <t>Musa</t>
+  </si>
+  <si>
+    <t>Kano</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +394,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stage_1/Excel_basics.xlsx
+++ b/stage_1/Excel_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E81E86-F393-4868-AAB6-FAFB5877EF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE4126E-E479-4762-8E6D-EBDA2615994C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t>Kano</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Enugu</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Jos</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>Kaduna</t>
   </si>
 </sst>
 </file>
@@ -395,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,6 +490,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_1/Excel_basics.xlsx
+++ b/stage_1/Excel_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE4126E-E479-4762-8E6D-EBDA2615994C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1DC2F2-F8A3-448C-83CC-388A9F75BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Kaduna</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
   </si>
 </sst>
 </file>
@@ -105,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,12 +137,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,18 +439,21 @@
     <col min="3" max="3" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -445,8 +463,11 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -456,8 +477,11 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -467,8 +491,11 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -478,8 +505,11 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -489,8 +519,11 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -500,8 +533,11 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -511,8 +547,11 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -522,8 +561,11 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
     </row>
   </sheetData>

--- a/stage_1/Excel_basics.xlsx
+++ b/stage_1/Excel_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1DC2F2-F8A3-448C-83CC-388A9F75BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C105B08D-A037-47BE-A70A-80F796C51217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,11 +431,12 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="8.7265625" style="2"/>
     <col min="3" max="3" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -457,7 +458,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -471,7 +472,7 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -485,7 +486,7 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -499,7 +500,7 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -513,7 +514,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -527,7 +528,7 @@
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -541,7 +542,7 @@
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -555,7 +556,7 @@
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">

--- a/stage_1/Excel_basics.xlsx
+++ b/stage_1/Excel_basics.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C105B08D-A037-47BE-A70A-80F796C51217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A574FCD6-FF2B-4772-A3EF-56E1F08DB8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Excel_Basics" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
